--- a/app/uxsinduplicados.xlsx
+++ b/app/uxsinduplicados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilde\Desktop\Desarrollo Cambiaria\AppCambiaria\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserdan\Desktop\Desarrollo Cambiaria\AppCambiaria\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,11 +551,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,17 +868,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I95" sqref="I95"/>
+      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
-    <col min="9" max="9" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -947,7 +949,7 @@
         <v>21775</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -985,7 +987,7 @@
         <v>28368</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>28372</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>1023245</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>1023248</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1137,7 +1139,7 @@
         <v>1023251</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>1023252</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1213,7 +1215,7 @@
         <v>1023253</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>1023268</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>1023269</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>1023271</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>1023272</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>1023273</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>1023274</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>1023277</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>1023280</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>1023283</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>1750703</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>1750953</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>1750955</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>1750957</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>1750959</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1783,7 +1785,7 @@
         <v>1750961</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>1751094</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>1751095</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>1751436</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>1751437</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>1751439</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>1751441</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>1751442</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>1751546</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>1751547</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>1989943</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>1989965</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>1990005</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>1990012</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -2670,7 +2672,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -2737,7 +2739,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -2871,7 +2873,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -3008,7 +3010,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -3040,7 +3042,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -3075,7 +3077,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -3174,7 +3176,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -3238,7 +3240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -3305,7 +3307,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -3372,7 +3374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -3407,7 +3409,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -3474,7 +3476,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -3509,7 +3511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -3544,7 +3546,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -3716,7 +3718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -3748,14 +3750,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>64</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>9506985.1999999993</v>
       </c>
       <c r="E82">
@@ -3780,14 +3782,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>65</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>9506985.1999999993</v>
       </c>
       <c r="E83">
@@ -3812,7 +3814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -3844,7 +3846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -3911,7 +3913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -3946,7 +3948,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>89</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>90</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>92</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>93</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>95</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>96</v>
       </c>
@@ -4138,7 +4140,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>98</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>99</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>100</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>101</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>102</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>103</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>104</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>105</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>106</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>107</v>
       </c>
@@ -4470,7 +4472,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>108</v>
       </c>
@@ -4502,7 +4504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>109</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>110</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>111</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>113</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>115</v>
       </c>
@@ -4697,7 +4699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>116</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>118</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>119</v>
       </c>
@@ -4796,7 +4798,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>120</v>
       </c>
@@ -4828,7 +4830,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>121</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>122</v>
       </c>
@@ -4892,7 +4894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>123</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>124</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>125</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>126</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>128</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>129</v>
       </c>
@@ -5090,7 +5092,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>130</v>
       </c>
@@ -5122,7 +5124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>132</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>134</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>135</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>136</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>139</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>140</v>
       </c>
@@ -5318,7 +5320,7 @@
   <autoFilter ref="A1:K129">
     <filterColumn colId="9">
       <filters>
-        <filter val="1751094"/>
+        <filter val="1989965"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/app/uxsinduplicados.xlsx
+++ b/app/uxsinduplicados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserdan\Desktop\Desarrollo Cambiaria\AppCambiaria\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilde\Desktop\Desarrollo Cambiaria\AppCambiaria\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="158">
   <si>
     <t>glosaRenglon</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t xml:space="preserve">PAGO CHEQUE: D-21-99280     , BENEFICIARIO: MARCO ANTONIO QUISPE PATTY                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -551,12 +554,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,24 +867,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26:M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="9" width="45.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -945,11 +951,12 @@
       <c r="K2">
         <v>410</v>
       </c>
-      <c r="M2">
-        <v>21775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="2">
+        <f>H2/8.86</f>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -983,11 +990,12 @@
       <c r="K3">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>28368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M19" si="0">H3/8.86</f>
+        <v>3.3860045146726862E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1021,11 +1029,12 @@
       <c r="K4">
         <v>23</v>
       </c>
-      <c r="M4">
-        <v>28372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1059,11 +1068,12 @@
       <c r="K5">
         <v>16</v>
       </c>
-      <c r="M5">
-        <v>1023245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1097,11 +1107,12 @@
       <c r="K6">
         <v>412</v>
       </c>
-      <c r="M6">
-        <v>1023248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1135,11 +1146,12 @@
       <c r="K7">
         <v>406</v>
       </c>
-      <c r="M7">
-        <v>1023251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1173,11 +1185,12 @@
       <c r="K8">
         <v>403</v>
       </c>
-      <c r="M8">
-        <v>1023252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1211,11 +1224,12 @@
       <c r="K9">
         <v>403</v>
       </c>
-      <c r="M9">
-        <v>1023253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1249,11 +1263,12 @@
       <c r="K10">
         <v>403</v>
       </c>
-      <c r="M10">
-        <v>1023268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1287,11 +1302,12 @@
       <c r="K11">
         <v>403</v>
       </c>
-      <c r="M11">
-        <v>1023269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1325,11 +1341,12 @@
       <c r="K12">
         <v>403</v>
       </c>
-      <c r="M12">
-        <v>1023271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1363,11 +1380,12 @@
       <c r="K13">
         <v>16</v>
       </c>
-      <c r="M13">
-        <v>1023272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3860045146726862E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1401,11 +1419,12 @@
       <c r="K14">
         <v>406</v>
       </c>
-      <c r="M14">
-        <v>1023273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1439,11 +1458,12 @@
       <c r="K15">
         <v>414</v>
       </c>
-      <c r="M15">
-        <v>1023274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1477,11 +1497,12 @@
       <c r="K16">
         <v>414</v>
       </c>
-      <c r="M16">
-        <v>1023277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1515,11 +1536,12 @@
       <c r="K17">
         <v>403</v>
       </c>
-      <c r="M17">
-        <v>1023280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1553,11 +1575,12 @@
       <c r="K18">
         <v>403</v>
       </c>
-      <c r="M18">
-        <v>1023283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1591,11 +1614,12 @@
       <c r="K19">
         <v>414</v>
       </c>
-      <c r="M19">
-        <v>1750703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1286681715575622E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1629,11 +1653,12 @@
       <c r="K20">
         <v>498</v>
       </c>
-      <c r="M20">
-        <v>1750953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="2">
+        <f>H20/6.86</f>
+        <v>2.0699708454810493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1667,11 +1692,12 @@
       <c r="K21">
         <v>410</v>
       </c>
-      <c r="M21">
-        <v>1750955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="2">
+        <f t="shared" ref="M21:M38" si="1">H21/6.86</f>
+        <v>904.89941690962087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1705,11 +1731,12 @@
       <c r="K22">
         <v>410</v>
       </c>
-      <c r="M22">
-        <v>1750957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="2">
+        <f t="shared" si="1"/>
+        <v>1297.4504373177842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1743,11 +1770,12 @@
       <c r="K23">
         <v>306</v>
       </c>
-      <c r="M23">
-        <v>1750959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>26.32944606413994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1781,11 +1809,12 @@
       <c r="K24">
         <v>405</v>
       </c>
-      <c r="M24">
-        <v>1750961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>245.46938775510205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1819,49 +1848,58 @@
       <c r="K25">
         <v>385</v>
       </c>
-      <c r="M25">
-        <v>1751094</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>287807.03061224485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>20</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>35</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>63.18</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>28368</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>10</v>
       </c>
-      <c r="M26">
-        <v>1751095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="4">
+        <f t="shared" si="1"/>
+        <v>9.2099125364431487</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26" s="4">
+        <f>M26</f>
+        <v>9.2099125364431487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1895,11 +1933,12 @@
       <c r="K27">
         <v>406</v>
       </c>
-      <c r="M27">
-        <v>1751436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0204081632653062E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1933,11 +1972,12 @@
       <c r="K28">
         <v>406</v>
       </c>
-      <c r="M28">
-        <v>1751437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>327.87026239067052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1971,49 +2011,58 @@
       <c r="K29">
         <v>22</v>
       </c>
-      <c r="M29">
-        <v>1751439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="2">
+        <f t="shared" si="1"/>
+        <v>26.639941690962097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>53</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>6296</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>18687.669999999998</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>28368</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>17</v>
       </c>
-      <c r="M30">
-        <v>1751441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="4">
+        <f t="shared" si="1"/>
+        <v>2724.1501457725944</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" s="4">
+        <f>M30</f>
+        <v>2724.1501457725944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2047,125 +2096,150 @@
       <c r="K31">
         <v>24</v>
       </c>
-      <c r="M31">
-        <v>1751442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1195335276967928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>53</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>6072</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>887.68</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>28368</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>10</v>
       </c>
-      <c r="M32">
-        <v>1751546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="4">
+        <f t="shared" si="1"/>
+        <v>129.39941690962098</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" s="4">
+        <f>M32</f>
+        <v>129.39941690962098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>31</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>6853</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>9.8800000000000008</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>28368</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>10</v>
       </c>
-      <c r="M33">
-        <v>1751547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4402332361516035</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" s="4">
+        <f>M33</f>
+        <v>1.4402332361516035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>33</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>39</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>18.25</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>28368</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>10</v>
       </c>
-      <c r="M34">
-        <v>1989943</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6603498542274053</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O34" s="4">
+        <f>M34</f>
+        <v>2.6603498542274053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2199,11 +2273,12 @@
       <c r="K35">
         <v>21</v>
       </c>
-      <c r="M35">
-        <v>1989965</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="2">
+        <f t="shared" si="1"/>
+        <v>291200.86005830899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -2237,84 +2312,104 @@
       <c r="K36">
         <v>23</v>
       </c>
-      <c r="M36">
-        <v>1990005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="2">
+        <f t="shared" si="1"/>
+        <v>18998.250728862971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>53</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>6535</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>28368</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>10</v>
       </c>
-      <c r="M37">
-        <v>1990012</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0408163265306124E-2</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O37" s="4">
+        <f>M37</f>
+        <v>2.0408163265306124E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>53</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>6758</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>6194787.5199999996</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>28368</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="4">
+        <f t="shared" si="1"/>
+        <v>903030.25072886283</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38" s="4">
+        <f>M38</f>
+        <v>903030.25072886283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2349,7 +2444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2381,7 +2476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -2413,7 +2508,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -2445,7 +2540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -2477,7 +2572,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -2509,7 +2604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -2544,7 +2639,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -2576,7 +2671,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -2608,7 +2703,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -2640,7 +2735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -2672,7 +2767,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2704,7 +2799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -2739,7 +2834,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -2771,7 +2866,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -2803,7 +2898,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -2838,7 +2933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -2873,7 +2968,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -2905,7 +3000,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -2940,7 +3035,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -2975,7 +3070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -3010,7 +3105,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -3042,7 +3137,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -3077,7 +3172,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -3109,7 +3204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -3144,7 +3239,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -3176,7 +3271,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -3208,7 +3303,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -3240,7 +3335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -3275,7 +3370,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -3307,7 +3402,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -3339,7 +3434,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -3374,7 +3469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -3409,7 +3504,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -3441,7 +3536,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -3476,7 +3571,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -3511,7 +3606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -3546,7 +3641,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -3581,7 +3676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -3616,7 +3711,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -3651,7 +3746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -3686,7 +3781,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -3718,7 +3813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -3750,7 +3845,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -3782,7 +3877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -3814,7 +3909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -3846,7 +3941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -3881,7 +3976,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -3913,7 +4008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -3948,7 +4043,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>89</v>
       </c>
@@ -3980,7 +4075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>90</v>
       </c>
@@ -4012,7 +4107,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>92</v>
       </c>
@@ -4044,7 +4139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>93</v>
       </c>
@@ -4076,7 +4171,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>95</v>
       </c>
@@ -4108,7 +4203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>96</v>
       </c>
@@ -4140,7 +4235,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>98</v>
       </c>
@@ -4175,7 +4270,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>99</v>
       </c>
@@ -4210,7 +4305,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>100</v>
       </c>
@@ -4242,7 +4337,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>101</v>
       </c>
@@ -4274,7 +4369,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>102</v>
       </c>
@@ -4306,7 +4401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>103</v>
       </c>
@@ -4338,7 +4433,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>104</v>
       </c>
@@ -4373,7 +4468,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>105</v>
       </c>
@@ -4408,7 +4503,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>106</v>
       </c>
@@ -4440,7 +4535,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>107</v>
       </c>
@@ -4472,7 +4567,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>108</v>
       </c>
@@ -4504,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>109</v>
       </c>
@@ -4536,7 +4631,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>110</v>
       </c>
@@ -4568,7 +4663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>111</v>
       </c>
@@ -4603,7 +4698,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -4635,7 +4730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>113</v>
       </c>
@@ -4667,7 +4762,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>115</v>
       </c>
@@ -4699,7 +4794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>116</v>
       </c>
@@ -4731,7 +4826,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>118</v>
       </c>
@@ -4763,7 +4858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>119</v>
       </c>
@@ -4798,7 +4893,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>120</v>
       </c>
@@ -4830,7 +4925,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>121</v>
       </c>
@@ -4862,7 +4957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>122</v>
       </c>
@@ -4894,7 +4989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>123</v>
       </c>
@@ -4929,7 +5024,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>124</v>
       </c>
@@ -4961,7 +5056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>125</v>
       </c>
@@ -4996,7 +5091,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>126</v>
       </c>
@@ -5028,7 +5123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>128</v>
       </c>
@@ -5060,7 +5155,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>129</v>
       </c>
@@ -5092,7 +5187,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>130</v>
       </c>
@@ -5124,7 +5219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>132</v>
       </c>
@@ -5156,7 +5251,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>134</v>
       </c>
@@ -5188,7 +5283,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>135</v>
       </c>
@@ -5220,7 +5315,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>136</v>
       </c>
@@ -5252,7 +5347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>139</v>
       </c>
@@ -5284,7 +5379,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>140</v>
       </c>
@@ -5320,10 +5415,18 @@
   <autoFilter ref="A1:K129">
     <filterColumn colId="9">
       <filters>
-        <filter val="1989965"/>
+        <filter val="28368"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="10"/>
+        <filter val="16"/>
+        <filter val="17"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/uxsinduplicados.xlsx
+++ b/app/uxsinduplicados.xlsx
@@ -867,13 +867,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26:M38"/>
+      <selection pane="bottomRight" activeCell="M132" sqref="M132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,8 @@
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.88671875" customWidth="1"/>
     <col min="9" max="9" width="45.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -5379,7 +5380,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>140</v>
       </c>
@@ -5409,6 +5410,12 @@
       </c>
       <c r="K129">
         <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M131" s="2">
+        <f>M38+M37+M34+M33+M32+M30-M26</f>
+        <v>905878.71137026243</v>
       </c>
     </row>
   </sheetData>

--- a/app/uxsinduplicados.xlsx
+++ b/app/uxsinduplicados.xlsx
@@ -870,7 +870,7 @@
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="M132" sqref="M132"/>
@@ -1854,7 +1854,7 @@
         <v>287807.03061224485</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>26.639941690962097</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>1.1195335276967928</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>129.39941690962098</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1.4402332361516035</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>18998.250728862971</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>2.0408163265306124E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -5422,7 +5422,7 @@
   <autoFilter ref="A1:K129">
     <filterColumn colId="9">
       <filters>
-        <filter val="28368"/>
+        <filter val="1023251"/>
       </filters>
     </filterColumn>
     <filterColumn colId="10">
